--- a/2022/Realme/JULY/04.07.2022/realme Bank Statement June-20222.xlsx
+++ b/2022/Realme/JULY/04.07.2022/realme Bank Statement June-20222.xlsx
@@ -2454,6 +2454,12 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="42" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2463,57 +2469,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2660,12 +2666,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="42" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3237,29 +3237,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="233"/>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
+      <c r="A1" s="235"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -4043,67 +4043,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="241"/>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="242"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="240"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4112,46 +4112,46 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="245" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="234" t="s">
+      <c r="J4" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="234" t="s">
+      <c r="K4" s="245" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="234" t="s">
+      <c r="L4" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="234" t="s">
+      <c r="M4" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="236" t="s">
+      <c r="N4" s="251" t="s">
         <v>49</v>
       </c>
       <c r="O4" s="249" t="s">
@@ -4170,20 +4170,20 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="244"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235"/>
-      <c r="L5" s="235"/>
-      <c r="M5" s="235"/>
-      <c r="N5" s="237"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="252"/>
       <c r="O5" s="250"/>
       <c r="P5" s="248"/>
       <c r="Q5" s="66" t="s">
@@ -7107,9 +7107,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7126,6 +7123,9 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7162,14 +7162,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="262"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
       <c r="H1" s="38"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -7222,14 +7222,14 @@
       <c r="BE1" s="113"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="265" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="265"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="267"/>
       <c r="H2" s="38"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
@@ -7282,14 +7282,14 @@
       <c r="BE2" s="113"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="266" t="s">
+      <c r="A3" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="268"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="270"/>
       <c r="H3" s="38"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
@@ -9280,13 +9280,13 @@
       <c r="BE34" s="113"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="270" t="s">
+      <c r="A35" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="272"/>
+      <c r="B35" s="273"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="274"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9341,12 +9341,12 @@
       <c r="BE35" s="113"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="258" t="s">
+      <c r="A36" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="269"/>
-      <c r="C36" s="269"/>
-      <c r="D36" s="259"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="261"/>
       <c r="E36" s="131">
         <f>F33-C119</f>
         <v>-6000</v>
@@ -9484,12 +9484,12 @@
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="251" t="s">
+      <c r="G38" s="253" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="251"/>
-      <c r="I38" s="251"/>
-      <c r="J38" s="251"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="253"/>
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113"/>
@@ -9629,11 +9629,11 @@
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="253" t="s">
+      <c r="G40" s="255" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="253"/>
-      <c r="I40" s="253"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
       <c r="J40" s="143">
         <v>3000</v>
       </c>
@@ -9698,11 +9698,11 @@
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="254" t="s">
+      <c r="G41" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="254"/>
-      <c r="I41" s="254"/>
+      <c r="H41" s="256"/>
+      <c r="I41" s="256"/>
       <c r="J41" s="143">
         <v>1800</v>
       </c>
@@ -9766,11 +9766,11 @@
         <v>106</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="G42" s="255" t="s">
+      <c r="G42" s="257" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="255"/>
-      <c r="I42" s="255"/>
+      <c r="H42" s="257"/>
+      <c r="I42" s="257"/>
       <c r="J42" s="18">
         <v>1500</v>
       </c>
@@ -9835,11 +9835,11 @@
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="113"/>
-      <c r="G43" s="252" t="s">
+      <c r="G43" s="254" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="252"/>
-      <c r="I43" s="252"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="254"/>
       <c r="J43" s="196">
         <f>SUM(J39:J41)</f>
         <v>17190</v>
@@ -13663,10 +13663,10 @@
       <c r="AX116" s="113"/>
     </row>
     <row r="117" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A117" s="256" t="s">
+      <c r="A117" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="257"/>
+      <c r="B117" s="259"/>
       <c r="C117" s="163">
         <f>SUM(C37:C116)</f>
         <v>597310</v>
@@ -13770,10 +13770,10 @@
       <c r="AX118" s="113"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A119" s="258" t="s">
+      <c r="A119" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="259"/>
+      <c r="B119" s="261"/>
       <c r="C119" s="130">
         <f>C117</f>
         <v>597310</v>
@@ -14549,7 +14549,7 @@
   <dimension ref="A1:AB215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14574,35 +14574,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="275" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="275"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="277"/>
       <c r="F1" s="139"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="284"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="286"/>
       <c r="F2" s="139"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="280"/>
       <c r="F3" s="139"/>
       <c r="G3" s="29"/>
       <c r="H3" s="1"/>
@@ -14628,13 +14628,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="287" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="286"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="287"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="289"/>
       <c r="F4" s="139"/>
       <c r="G4" s="29"/>
       <c r="I4" s="1"/>
@@ -14869,10 +14869,10 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="21.75">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="301">
+      <c r="B11" s="232">
         <f>B6-B9-B10</f>
         <v>27409.699999999997</v>
       </c>
@@ -15145,13 +15145,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="279" t="s">
+      <c r="A20" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="280"/>
-      <c r="C20" s="280"/>
-      <c r="D20" s="280"/>
-      <c r="E20" s="281"/>
+      <c r="B20" s="282"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="283"/>
       <c r="F20" s="139"/>
       <c r="G20" s="124"/>
       <c r="H20" s="1"/>
@@ -19794,31 +19794,31 @@
     </row>
     <row r="4" spans="1:10" ht="13.5" thickBot="1"/>
     <row r="5" spans="1:10" ht="25.5">
-      <c r="F5" s="291" t="s">
+      <c r="F5" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="293"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="295"/>
     </row>
     <row r="6" spans="1:10" ht="18">
-      <c r="F6" s="294" t="s">
+      <c r="F6" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="296"/>
+      <c r="G6" s="297"/>
+      <c r="H6" s="297"/>
+      <c r="I6" s="297"/>
+      <c r="J6" s="298"/>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="F7" s="297" t="s">
+      <c r="F7" s="299" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="298"/>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="299"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="301"/>
     </row>
     <row r="8" spans="1:10" ht="5.25" customHeight="1">
       <c r="F8" s="223"/>
@@ -19947,11 +19947,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" thickBot="1">
-      <c r="F16" s="288" t="s">
+      <c r="F16" s="290" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="289"/>
-      <c r="H16" s="290"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="292"/>
       <c r="I16" s="221">
         <f>SUM(I10:I15)</f>
         <v>529070</v>
